--- a/data/trans_bre/P5_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-16,19%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 12,73</t>
+          <t>-28,38; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 12,66</t>
+          <t>-33,12; 8,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 22,33</t>
+          <t>-32,07; 15,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 23,5</t>
+          <t>-36,98; 10,7</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>33,78%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 22,15</t>
+          <t>-8,79; 34,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 17,15</t>
+          <t>-9,95; 36,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 89,27</t>
+          <t>-19,63; 203,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 55,45</t>
+          <t>-21,34; 222,78</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,27</t>
+          <t>-16,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>-24,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>-29,53%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 8,61</t>
+          <t>-28,65; 3,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 6,83</t>
+          <t>-31,84; -0,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 23,5</t>
+          <t>-45,82; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 16,43</t>
+          <t>-47,98; -1,92</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>-12,41%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 4,68</t>
+          <t>-20,76; 10,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 4,21</t>
+          <t>-20,18; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 10,66</t>
+          <t>-37,66; 24,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 8,47</t>
+          <t>-36,22; 29,17</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>-12,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>-11,57%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 9,16</t>
+          <t>-22,73; 11,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 8,39</t>
+          <t>-23,6; 12,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 21,72</t>
+          <t>-43,31; 30,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 21,19</t>
+          <t>-42,35; 30,49</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-16,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-26,32%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 10,44</t>
+          <t>-38,21; 2,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 11,52</t>
+          <t>-35,57; 4,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 26,47</t>
+          <t>-54,92; 7,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 29,0</t>
+          <t>-54,26; 10,02</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>-12,57%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 2,39</t>
+          <t>-13,64; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,43</t>
+          <t>-15,22; 2,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 5,19</t>
+          <t>-24,32; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 0,9</t>
+          <t>-26,7; 4,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-13,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,25%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-16,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.055491759376688</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.79023839668211</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1124647885942434</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1843002469746467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-28,38; 10,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-33,12; 8,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-32,07; 15,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-36,98; 10,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-28.3824106573861</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-36.19756693674199</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3207497515370554</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.4144040350954816</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.29431634802049</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.473244845712443</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1542184031361302</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.08492201314150548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>40,24%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>33,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 34,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; 36,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,63; 203,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; 222,78</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>12.19292669111581</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.42348687138425</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4023572226249612</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3602414606798098</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-12,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-16,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-24,06%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-29,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.791162783866623</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.591340148176599</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1962878129128856</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.201062477746818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-28,65; 3,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-31,84; -0,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-45,82; 7,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; -1,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>34.52280939131244</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>35.69616727161382</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.035348288562417</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.013301362500041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,83</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-13,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-12,41%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-12.84274578199318</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-18.50887830022906</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.2406225297488155</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.3059791579918876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 10,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,18; 11,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-37,66; 24,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,22; 29,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-28.65160804245289</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-33.13155532996167</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.4581547236502823</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4821884178079253</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.094190542062139</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.960397698038658</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.07351016618845393</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.03324134546538267</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,04%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 11,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,6; 12,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-43,31; 30,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-42,35; 30,49</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.833638971582396</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.748917284218741</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1396403461855898</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1369161974667419</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-16,36</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,66</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-28,31%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,32%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-20.76239515800609</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-21.21807842293072</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3765947148522631</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3780105286324617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-38,21; 2,88</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-35,57; 4,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-54,92; 7,86</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-54,26; 10,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.21750060577029</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.18347137441271</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2429578689361836</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2572314696679722</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-9,93%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-12,57%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.509828572934172</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.332114434269764</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.1204451918286522</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1132479772693557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 3,39</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 2,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; 7,27</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-26,7; 4,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.73277435942374</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.54605922695965</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.4331159523448967</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.4249551044443493</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.17840792949674</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.58344230092534</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.3000339341197658</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.3288911383163168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-16.36101920445996</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-14.01229634924178</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2831002751561781</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.255411526162579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-38.2134843166271</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-35.45304177413526</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5492375220203216</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.552975423668334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2.883261641070824</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.536072391992644</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.07863551342087662</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1181365026391157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.009652014300508</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-6.410556002120826</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.09929154542861823</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1239464608441298</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-13.64257186627992</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.96979772345367</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2431868139856976</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.262013028680645</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.385921978810968</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.017067956591991</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.07271711732220458</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.0435498672958702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
